--- a/maint/РР_По_Пробегу_TestCase.xlsx
+++ b/maint/РР_По_Пробегу_TestCase.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work_Abitech\ASCOA\maint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4760AC-7F1F-4CAF-A949-CD86665ABD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA714269-7487-449C-ABE4-54D26A9BB15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{005A0859-5D8B-4ADC-8EC9-39B9A4BBE084}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{005A0859-5D8B-4ADC-8EC9-39B9A4BBE084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>Единица оборудования</t>
   </si>
@@ -174,6 +175,46 @@
   </si>
   <si>
     <t>Наряд-задание с плановым обслуживанием на 9170 км</t>
+  </si>
+  <si>
+    <t>РР</t>
+  </si>
+  <si>
+    <t>ScheduleWorks</t>
+  </si>
+  <si>
+    <t>Вагон</t>
+  </si>
+  <si>
+    <t>С поглощением</t>
+  </si>
+  <si>
+    <t>Показатель</t>
+  </si>
+  <si>
+    <t>От последнего фактического</t>
+  </si>
+  <si>
+    <t>Пробег вагона</t>
+  </si>
+  <si>
+    <t>Пробег по последнему обслуживанию</t>
+  </si>
+  <si>
+    <t>Тип последнего обслуживания</t>
+  </si>
+  <si>
+    <t>РР для последнего обслуживания</t>
+  </si>
+  <si>
+    <t>Пробег для обслуживания
+"Общий" - "Для последнего обслуживания"</t>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <t>Пробег для обслуживания меньше показателей РР</t>
   </si>
 </sst>
 </file>
@@ -221,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -257,11 +298,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -273,8 +340,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA30457-9086-4D01-841F-7E746DE37453}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +901,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="2"/>
@@ -977,13 +1052,13 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="2">
         <v>9010</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -997,13 +1072,13 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="2">
         <v>9010</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -1037,6 +1112,168 @@
       </c>
       <c r="D39" t="s">
         <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0DA258-7CD8-4BA6-9AA5-7C119F5DB44D}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <f>A10-C10</f>
+        <v>500</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>750</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:B12" si="0">A11-C11</f>
+        <v>750</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
